--- a/Supplementary_Data_Tables/Excel_files/Supplementary_Table13_GEF_kinetics.xlsx
+++ b/Supplementary_Data_Tables/Excel_files/Supplementary_Table13_GEF_kinetics.xlsx
@@ -94,7 +94,7 @@
   </si>
   <si>
     <r>
-      <t>std.dev. K</t>
+      <t>K</t>
     </r>
     <r>
       <rPr>
@@ -118,7 +118,7 @@
   </si>
   <si>
     <r>
-      <t>K</t>
+      <t>k</t>
     </r>
     <r>
       <rPr>
@@ -128,6 +128,173 @@
         <color theme="0"/>
         <rFont val="Arial"/>
       </rPr>
+      <t>cat</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> [s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>cat</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>/K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">m       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> [s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> μM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>std.error k</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>cat</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> [s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>std.error K</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>m</t>
     </r>
     <r>
@@ -142,174 +309,7 @@
   </si>
   <si>
     <r>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>cat</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> [s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>std.dev. k</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>cat</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> [s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>cat</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>/K</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">m       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> [s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> μM</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>std.dev. k</t>
+      <t>std.error k</t>
     </r>
     <r>
       <rPr>
@@ -404,7 +404,7 @@
         <color theme="1"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> - Michaelis-Menten parameters of GEF-mediated nucleotide exchange. Standard deviation is based on the error of the Michaelis-Menten fit to the data.</t>
+      <t xml:space="preserve"> - Michaelis-Menten parameters of GEF-mediated nucleotide exchange. Standard error is based on the error of the Michaelis-Menten fit to the data.</t>
     </r>
   </si>
 </sst>
@@ -413,7 +413,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -574,14 +574,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -944,566 +944,566 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="79" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>4.0387432600000004</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.41712088899999999</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>304.87676349999998</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>50.521757520000001</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>1.3247134000000001E-2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>2.5866610000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>8.1280434150000005</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.55438989000000005</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>149.15949330000001</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>15.732531509999999</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>5.4492297000000002E-2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>6.8446069999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>3.3993469919999999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>8.2255622E-2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>49.154721860000002</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>2.9472504050000001</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>6.9156062000000004E-2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>4.4714389999999998E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>4.4644546549999999</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.144940924</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>19.301079739999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>1.5943031409999999</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.23130595400000001</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>2.0529054000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>3.5150204870000001</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.193384264</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>10.23392273</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>1.4313316840000001</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>0.343467562</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>5.1620851000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>3.8121215620000002</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.102453684</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>8.6867402509999998</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.63704631199999995</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0.43884373799999998</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>3.4275915999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>5.4241346840000002</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.118748039</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>8.4840650130000004</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.54974075200000005</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.63933205100000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>4.3727301000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>0.99319158600000002</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>5.6252266000000002E-2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>1.046630586</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0.238549872</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>0.94894187100000005</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.222862332</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="17" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1.8753830330000001</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0.16623418200000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1.6499726480000001</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>0.49351477100000002</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>1.1366146189999999</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.354581435</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>0.59741398499999998</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>2.7223279E-2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>0.125011385</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>1.1948279690000001</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.30365531200000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1.245289997</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>9.7511735000000002E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>1.036258664</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>0.33059949100000002</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>1.2017173320000001</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>0.39476531300000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>1.9609485369999999</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>0.10550008600000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1.625579012</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>0.35023230999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>1.2063077360000001</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.267880585</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1.939359654</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>5.9494072000000002E-2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>1.595087463</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>0.15822502999999999</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>1.215832799</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.126240558</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>1.287291921</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>4.5237436999999998E-2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>0.95958595800000002</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>0.140129642</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>1.341507668</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>0.20149465999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>1.93042129</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>7.0115116000000005E-2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>1.382170532</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>0.17788236900000001</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>1.396659273</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0.186768186</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>1.7007108120000001</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>6.9444158000000006E-2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>1.0206475129999999</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>0.174371321</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>1.666305742</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>0.292695977</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>2.518658812</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>0.14042708500000001</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>1.3785284840000001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>0.28136991099999997</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>1.827063307</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>0.386582696</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>1.193204387</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>7.6039117000000003E-2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>0.64876102499999999</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>0.197327329</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>1.8392047920000001</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>0.57155956600000002</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>2.3194293849999998</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>4.5256933999999999E-2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>1.1674162269999999</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>9.0499777000000003E-2</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>1.986805846</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>0.15882390199999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>1.846539505</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>9.9066741999999999E-2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>0.86549683200000005</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>0.217337157</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>2.1335023280000001</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>0.54784024899999995</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>2.2253334210000002</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>0.123107671</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>0.85582673499999995</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>0.206800442</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>2.6002148909999998</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>0.64456719900000004</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>2.997587792</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>0.131217527</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>0.93786279699999997</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>0.16015560300000001</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>3.1961901039999998</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>0.56344954999999997</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>2.9756057739999999</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>8.2205159999999999E-2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>0.91531753900000001</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>0.121587497</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>3.250899983</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>0.44107810400000003</v>
       </c>
     </row>
